--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/git/income-mobility-mortality-abm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8843486-3816-DE40-98EA-17C33ECC745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2770E-A93A-2B4B-9D56-C96B3545DC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2360" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{4EBB92D3-3318-1B43-9A76-512A83B7E870}"/>
+    <workbookView xWindow="-31900" yWindow="2380" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4EBB92D3-3318-1B43-9A76-512A83B7E870}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="20">
   <si>
     <t>Scenario</t>
   </si>
@@ -85,10 +85,16 @@
     <t xml:space="preserve">Exogenous </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>m0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,14 +213,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E210B099-94D3-C94C-A9ED-160340610209}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,29 +663,30 @@
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -699,19 +709,25 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -740,7 +756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -748,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -769,7 +785,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -798,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -826,8 +842,9 @@
       <c r="I7" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -855,8 +872,9 @@
       <c r="I8" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -880,7 +898,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -903,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -926,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -949,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -972,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1023,7 +1041,7 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1050,23 +1068,23 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1091,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>9</v>
@@ -1101,182 +1119,182 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
         <v>-1.23</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>-0.23</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7">
         <v>-0.13</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
         <v>-0.52</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
         <v>-0.16</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>-0.09</v>
       </c>
     </row>
@@ -1303,8 +1321,8 @@
         <v>2</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -1329,8 +1347,8 @@
         <v>2</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -1355,8 +1373,8 @@
         <v>3</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -1381,8 +1399,8 @@
         <v>2</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -1407,8 +1425,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -1433,8 +1451,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1450,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F759E1-FFEA-A547-A695-BD61D91FEB13}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
